--- a/tut06/output/2001CB03.xlsx
+++ b/tut06/output/2001CB03.xlsx
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28/07</t>
+          <t>28-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -508,7 +508,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08</t>
+          <t>01-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04/08</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08/08</t>
+          <t>08-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -580,7 +580,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11/08</t>
+          <t>11-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -604,7 +604,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15/08</t>
+          <t>15-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -628,7 +628,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18/08</t>
+          <t>18-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -652,7 +652,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22/08</t>
+          <t>22-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -676,7 +676,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25/08</t>
+          <t>25-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29/08</t>
+          <t>29-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -724,7 +724,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/09</t>
+          <t>01-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -748,7 +748,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/09</t>
+          <t>05-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08/09</t>
+          <t>08-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -796,7 +796,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12/09</t>
+          <t>12-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -820,7 +820,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15/09</t>
+          <t>15-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -844,7 +844,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26/09</t>
+          <t>26-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -868,7 +868,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>29/09</t>
+          <t>29-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
